--- a/natmiOut/OldD0/LR-pairs_lrc2p/Cxcl16-Cxcr6.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Cxcl16-Cxcr6.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.05661808144509</v>
+        <v>4.286687</v>
       </c>
       <c r="H2">
-        <v>4.05661808144509</v>
+        <v>12.860061</v>
       </c>
       <c r="I2">
-        <v>0.3535750386340937</v>
+        <v>0.3636010652499373</v>
       </c>
       <c r="J2">
-        <v>0.3535750386340937</v>
+        <v>0.3636010652499373</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.18047235845888</v>
+        <v>1.316746666666667</v>
       </c>
       <c r="N2">
-        <v>1.18047235845888</v>
+        <v>3.95024</v>
       </c>
       <c r="O2">
-        <v>0.2909963670454694</v>
+        <v>0.3073964349004645</v>
       </c>
       <c r="P2">
-        <v>0.2909963670454694</v>
+        <v>0.3073964349004645</v>
       </c>
       <c r="Q2">
-        <v>4.788725513970423</v>
+        <v>5.644480818293333</v>
       </c>
       <c r="R2">
-        <v>4.788725513970423</v>
+        <v>50.80032736464</v>
       </c>
       <c r="S2">
-        <v>0.1028890517204828</v>
+        <v>0.1117696711838419</v>
       </c>
       <c r="T2">
-        <v>0.1028890517204828</v>
+        <v>0.1117696711838419</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.05661808144509</v>
+        <v>4.286687</v>
       </c>
       <c r="H3">
-        <v>4.05661808144509</v>
+        <v>12.860061</v>
       </c>
       <c r="I3">
-        <v>0.3535750386340937</v>
+        <v>0.3636010652499373</v>
       </c>
       <c r="J3">
-        <v>0.3535750386340937</v>
+        <v>0.3636010652499373</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.5717786265338</v>
+        <v>1.660999</v>
       </c>
       <c r="N3">
-        <v>1.5717786265338</v>
+        <v>4.982997</v>
       </c>
       <c r="O3">
-        <v>0.3874566539772017</v>
+        <v>0.3877626455404506</v>
       </c>
       <c r="P3">
-        <v>0.3874566539772017</v>
+        <v>0.3877626455404507</v>
       </c>
       <c r="Q3">
-        <v>6.376105596425943</v>
+        <v>7.120182820313</v>
       </c>
       <c r="R3">
-        <v>6.376105596425943</v>
+        <v>64.081645382817</v>
       </c>
       <c r="S3">
-        <v>0.1369950013990258</v>
+        <v>0.1409909109826417</v>
       </c>
       <c r="T3">
-        <v>0.1369950013990258</v>
+        <v>0.1409909109826417</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.05661808144509</v>
+        <v>4.286687</v>
       </c>
       <c r="H4">
-        <v>4.05661808144509</v>
+        <v>12.860061</v>
       </c>
       <c r="I4">
-        <v>0.3535750386340937</v>
+        <v>0.3636010652499373</v>
       </c>
       <c r="J4">
-        <v>0.3535750386340937</v>
+        <v>0.3636010652499373</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.30440570266427</v>
+        <v>1.3058</v>
       </c>
       <c r="N4">
-        <v>1.30440570266427</v>
+        <v>3.9174</v>
       </c>
       <c r="O4">
-        <v>0.3215469789773289</v>
+        <v>0.3048409195590848</v>
       </c>
       <c r="P4">
-        <v>0.3215469789773289</v>
+        <v>0.3048409195590849</v>
       </c>
       <c r="Q4">
-        <v>5.291475758967965</v>
+        <v>5.597555884599999</v>
       </c>
       <c r="R4">
-        <v>5.291475758967965</v>
+        <v>50.3780029614</v>
       </c>
       <c r="S4">
-        <v>0.1136909855145852</v>
+        <v>0.1108404830834537</v>
       </c>
       <c r="T4">
-        <v>0.1136909855145852</v>
+        <v>0.1108404830834537</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.95475988609421</v>
+        <v>7.000795333333333</v>
       </c>
       <c r="H5">
-        <v>6.95475988609421</v>
+        <v>21.002386</v>
       </c>
       <c r="I5">
-        <v>0.6061772259666665</v>
+        <v>0.5938144401018293</v>
       </c>
       <c r="J5">
-        <v>0.6061772259666665</v>
+        <v>0.5938144401018293</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.18047235845888</v>
+        <v>1.316746666666667</v>
       </c>
       <c r="N5">
-        <v>1.18047235845888</v>
+        <v>3.95024</v>
       </c>
       <c r="O5">
-        <v>0.2909963670454694</v>
+        <v>0.3073964349004645</v>
       </c>
       <c r="P5">
-        <v>0.2909963670454694</v>
+        <v>0.3073964349004645</v>
       </c>
       <c r="Q5">
-        <v>8.209901805252844</v>
+        <v>9.218273919182224</v>
       </c>
       <c r="R5">
-        <v>8.209901805252844</v>
+        <v>82.96446527264</v>
       </c>
       <c r="S5">
-        <v>0.1763953705420006</v>
+        <v>0.1825364418797177</v>
       </c>
       <c r="T5">
-        <v>0.1763953705420006</v>
+        <v>0.1825364418797177</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.95475988609421</v>
+        <v>7.000795333333333</v>
       </c>
       <c r="H6">
-        <v>6.95475988609421</v>
+        <v>21.002386</v>
       </c>
       <c r="I6">
-        <v>0.6061772259666665</v>
+        <v>0.5938144401018293</v>
       </c>
       <c r="J6">
-        <v>0.6061772259666665</v>
+        <v>0.5938144401018293</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.5717786265338</v>
+        <v>1.660999</v>
       </c>
       <c r="N6">
-        <v>1.5717786265338</v>
+        <v>4.982997</v>
       </c>
       <c r="O6">
-        <v>0.3874566539772017</v>
+        <v>0.3877626455404506</v>
       </c>
       <c r="P6">
-        <v>0.3874566539772017</v>
+        <v>0.3877626455404507</v>
       </c>
       <c r="Q6">
-        <v>10.93134294163752</v>
+        <v>11.62831404787133</v>
       </c>
       <c r="R6">
-        <v>10.93134294163752</v>
+        <v>104.654826430842</v>
       </c>
       <c r="S6">
-        <v>0.2348673996902267</v>
+        <v>0.2302590582540068</v>
       </c>
       <c r="T6">
-        <v>0.2348673996902267</v>
+        <v>0.2302590582540068</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.95475988609421</v>
+        <v>7.000795333333333</v>
       </c>
       <c r="H7">
-        <v>6.95475988609421</v>
+        <v>21.002386</v>
       </c>
       <c r="I7">
-        <v>0.6061772259666665</v>
+        <v>0.5938144401018293</v>
       </c>
       <c r="J7">
-        <v>0.6061772259666665</v>
+        <v>0.5938144401018293</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.30440570266427</v>
+        <v>1.3058</v>
       </c>
       <c r="N7">
-        <v>1.30440570266427</v>
+        <v>3.9174</v>
       </c>
       <c r="O7">
-        <v>0.3215469789773289</v>
+        <v>0.3048409195590848</v>
       </c>
       <c r="P7">
-        <v>0.3215469789773289</v>
+        <v>0.3048409195590849</v>
       </c>
       <c r="Q7">
-        <v>9.071828456081995</v>
+        <v>9.141638546266666</v>
       </c>
       <c r="R7">
-        <v>9.071828456081995</v>
+        <v>82.27474691640001</v>
       </c>
       <c r="S7">
-        <v>0.1949144557344392</v>
+        <v>0.1810189399681047</v>
       </c>
       <c r="T7">
-        <v>0.1949144557344392</v>
+        <v>0.1810189399681048</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.461768149099286</v>
+        <v>0.5020513333333333</v>
       </c>
       <c r="H8">
-        <v>0.461768149099286</v>
+        <v>1.506154</v>
       </c>
       <c r="I8">
-        <v>0.04024773539923985</v>
+        <v>0.04258449464823332</v>
       </c>
       <c r="J8">
-        <v>0.04024773539923985</v>
+        <v>0.04258449464823332</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.18047235845888</v>
+        <v>1.316746666666667</v>
       </c>
       <c r="N8">
-        <v>1.18047235845888</v>
+        <v>3.95024</v>
       </c>
       <c r="O8">
-        <v>0.2909963670454694</v>
+        <v>0.3073964349004645</v>
       </c>
       <c r="P8">
-        <v>0.2909963670454694</v>
+        <v>0.3073964349004645</v>
       </c>
       <c r="Q8">
-        <v>0.5451045360284259</v>
+        <v>0.6610744196622222</v>
       </c>
       <c r="R8">
-        <v>0.5451045360284259</v>
+        <v>5.94966977696</v>
       </c>
       <c r="S8">
-        <v>0.01171194478298613</v>
+        <v>0.01309032183690483</v>
       </c>
       <c r="T8">
-        <v>0.01171194478298613</v>
+        <v>0.01309032183690483</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.461768149099286</v>
+        <v>0.5020513333333333</v>
       </c>
       <c r="H9">
-        <v>0.461768149099286</v>
+        <v>1.506154</v>
       </c>
       <c r="I9">
-        <v>0.04024773539923985</v>
+        <v>0.04258449464823332</v>
       </c>
       <c r="J9">
-        <v>0.04024773539923985</v>
+        <v>0.04258449464823332</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.5717786265338</v>
+        <v>1.660999</v>
       </c>
       <c r="N9">
-        <v>1.5717786265338</v>
+        <v>4.982997</v>
       </c>
       <c r="O9">
-        <v>0.3874566539772017</v>
+        <v>0.3877626455404506</v>
       </c>
       <c r="P9">
-        <v>0.3874566539772017</v>
+        <v>0.3877626455404507</v>
       </c>
       <c r="Q9">
-        <v>0.7257973071683307</v>
+        <v>0.8339067626153334</v>
       </c>
       <c r="R9">
-        <v>0.7257973071683307</v>
+        <v>7.505160863538</v>
       </c>
       <c r="S9">
-        <v>0.01559425288794925</v>
+        <v>0.01651267630380212</v>
       </c>
       <c r="T9">
-        <v>0.01559425288794925</v>
+        <v>0.01651267630380212</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.461768149099286</v>
+        <v>0.5020513333333333</v>
       </c>
       <c r="H10">
-        <v>0.461768149099286</v>
+        <v>1.506154</v>
       </c>
       <c r="I10">
-        <v>0.04024773539923985</v>
+        <v>0.04258449464823332</v>
       </c>
       <c r="J10">
-        <v>0.04024773539923985</v>
+        <v>0.04258449464823332</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.30440570266427</v>
+        <v>1.3058</v>
       </c>
       <c r="N10">
-        <v>1.30440570266427</v>
+        <v>3.9174</v>
       </c>
       <c r="O10">
-        <v>0.3215469789773289</v>
+        <v>0.3048409195590848</v>
       </c>
       <c r="P10">
-        <v>0.3215469789773289</v>
+        <v>0.3048409195590849</v>
       </c>
       <c r="Q10">
-        <v>0.6023330069938335</v>
+        <v>0.6555786310666666</v>
       </c>
       <c r="R10">
-        <v>0.6023330069938335</v>
+        <v>5.900207679599999</v>
       </c>
       <c r="S10">
-        <v>0.01294153772830447</v>
+        <v>0.01298149650752637</v>
       </c>
       <c r="T10">
-        <v>0.01294153772830447</v>
+        <v>0.01298149650752637</v>
       </c>
     </row>
   </sheetData>
